--- a/biology/Microbiologie/Bactérie_géante/Bactérie_géante.xlsx
+++ b/biology/Microbiologie/Bactérie_géante/Bactérie_géante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bact%C3%A9rie_g%C3%A9ante</t>
+          <t>Bactérie_géante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un certain nombre de bactéries exceptionnellement grandes (assez pour qu'une seule de leur cellule soit visible à l’œil nu) ont été découvertes au XXe siècle.
-Des traces fossiles de bactéries géantes existent (par exemple au Néoprotérozoïque[1]).
+Des traces fossiles de bactéries géantes existent (par exemple au Néoprotérozoïque).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bact%C3%A9rie_g%C3%A9ante</t>
+          <t>Bactérie_géante</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Thiomargarita namibiensis (la plus grande des bactéries connues lors de sa découverte, en 1999)
 Thiomargarita magnifica (découverte en 2019 en Guadeloupe sous les feuilles dans la mangrove et mesurant jusqu'à 2 cm)
-Thioploca spp.[2]
-Achromatium oxaliferum[3]
+Thioploca spp.
+Achromatium oxaliferum
 Bacillus camptospora
-Epulopiscium fishelsoni[4]</t>
+Epulopiscium fishelsoni</t>
         </is>
       </c>
     </row>
